--- a/fonctionnalités du site asb.xlsx
+++ b/fonctionnalités du site asb.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="en ligne" sheetId="2" r:id="rId1"/>
+    <sheet name="local" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>SITE ANTENNE SOLUTIONS BUSINESS</t>
   </si>
@@ -53,21 +54,12 @@
     <t>Intégration format pdf page article</t>
   </si>
   <si>
-    <t>La page est crée mais la formulaire de contact est a revoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avec elementor et smart slider la customination est possible </t>
-  </si>
-  <si>
     <t>Page testing avec vidéo POP UP (il nous font confiance)</t>
   </si>
   <si>
     <t>Possibilité de partager article sur Linkdin</t>
   </si>
   <si>
-    <t>Test de plugin pour le moment</t>
-  </si>
-  <si>
     <t>Voir les articles précendante</t>
   </si>
   <si>
@@ -80,9 +72,6 @@
     <t>Chat box simple</t>
   </si>
   <si>
-    <t>Chat box fonctionne avec la possibilité pour le visiteur de poser c'est question, alternative</t>
-  </si>
-  <si>
     <t xml:space="preserve">Site ASB migrée en ligne </t>
   </si>
   <si>
@@ -98,9 +87,6 @@
     <t>Slide video img</t>
   </si>
   <si>
-    <t>La fonctionnalité fonctionne, le desing doit être modifié</t>
-  </si>
-  <si>
     <t>Filtre fonctionne, ajout du ajax pour le recherchement auto</t>
   </si>
   <si>
@@ -110,27 +96,15 @@
     <t xml:space="preserve">Format pdf sous forme Ebook </t>
   </si>
   <si>
-    <t>Il s'agit d'un idée notament pour les formats longs</t>
-  </si>
-  <si>
     <t>Création d'une page en savoir plus</t>
   </si>
   <si>
     <t>Possibilité libre de crée de modif et supprimer des article des pages ect…</t>
   </si>
   <si>
-    <t>Lien de redirect vers la page exemple</t>
-  </si>
-  <si>
     <t>Identification abonnée ou non abonnée</t>
   </si>
   <si>
-    <t>Test d'un plugin, les fonctionnalités de wordpress peut être une alternative</t>
-  </si>
-  <si>
-    <t>Attente de chris sur la possibilité de migrer la bdd</t>
-  </si>
-  <si>
     <t>Inscription à la newsletter</t>
   </si>
   <si>
@@ -140,16 +114,55 @@
     <t>Barre de nav</t>
   </si>
   <si>
-    <t>Avec menus HP/Actu/Kub/OffresCGV/Contacts et moteur de recherche</t>
-  </si>
-  <si>
     <t>Idée créaction d'une page avec les spect tech</t>
   </si>
   <si>
-    <t>Possibilité ou non d'avoir accès au spec tech uniquement pour les abonnées</t>
-  </si>
-  <si>
     <t>Intégration Google Analytics</t>
+  </si>
+  <si>
+    <t>Le site est en ligne mais il reste à faire la migration (photos,style ect…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lien de redirection </t>
+  </si>
+  <si>
+    <t>Reprendre Google Analytics du site asb</t>
+  </si>
+  <si>
+    <t>SITE ANTENNE SOLUTIONS BUSINESS(local)</t>
+  </si>
+  <si>
+    <t>Creation page du KUB</t>
+  </si>
+  <si>
+    <t>Creation Actualités</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation du coffre documentaire </t>
+  </si>
+  <si>
+    <t>Barre de navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat box </t>
+  </si>
+  <si>
+    <t>Besoin de passé à la version prenimun (option:logical jump)</t>
+  </si>
+  <si>
+    <t>Possibilité libre de créer de modif et supprimer des articles des pages ect…</t>
+  </si>
+  <si>
+    <t>Voir les articles précédents</t>
+  </si>
+  <si>
+    <t>Idée création d'une page avec les spect tech</t>
+  </si>
+  <si>
+    <t>Résoudre les problèmes des liens absolus</t>
+  </si>
+  <si>
+    <t>Ajout du ajax pour le recherchement auto</t>
   </si>
 </sst>
 </file>
@@ -184,7 +197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,11 +286,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,48 +576,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12" t="s">
-        <v>15</v>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -609,87 +630,85 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3"/>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3"/>
       <c r="E11" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="E12" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="E14" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -700,95 +719,94 @@
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="E16" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
-      <c r="E17" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="E18" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="E20" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="E21" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="10" t="s">
-        <v>34</v>
+      <c r="E26" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="E27" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -797,6 +815,237 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="E26" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>